--- a/Module20/TestAutomation/TestData/SuiteA.xlsx
+++ b/Module20/TestAutomation/TestData/SuiteA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Functionalties" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="48">
   <si>
     <t>Functionality Name</t>
   </si>
@@ -55,6 +55,117 @@
   </si>
   <si>
     <t>Func7</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Col1</t>
+  </si>
+  <si>
+    <t>Col2</t>
+  </si>
+  <si>
+    <t>Col3</t>
+  </si>
+  <si>
+    <t>c11</t>
+  </si>
+  <si>
+    <t>c21</t>
+  </si>
+  <si>
+    <t>c31</t>
+  </si>
+  <si>
+    <t>c12</t>
+  </si>
+  <si>
+    <t>c13</t>
+  </si>
+  <si>
+    <t>c14</t>
+  </si>
+  <si>
+    <t>c22</t>
+  </si>
+  <si>
+    <t>c23</t>
+  </si>
+  <si>
+    <t>c24</t>
+  </si>
+  <si>
+    <t>c32</t>
+  </si>
+  <si>
+    <t>c33</t>
+  </si>
+  <si>
+    <t>c34</t>
+  </si>
+  <si>
+    <t>Col4</t>
+  </si>
+  <si>
+    <t>c41</t>
+  </si>
+  <si>
+    <t>c42</t>
+  </si>
+  <si>
+    <t>c43</t>
+  </si>
+  <si>
+    <t>c44</t>
+  </si>
+  <si>
+    <t>c51</t>
+  </si>
+  <si>
+    <t>c52</t>
+  </si>
+  <si>
+    <t>c53</t>
+  </si>
+  <si>
+    <t>c54</t>
+  </si>
+  <si>
+    <t>c15</t>
+  </si>
+  <si>
+    <t>c16</t>
+  </si>
+  <si>
+    <t>c17</t>
+  </si>
+  <si>
+    <t>c18</t>
+  </si>
+  <si>
+    <t>c25</t>
+  </si>
+  <si>
+    <t>c26</t>
+  </si>
+  <si>
+    <t>c27</t>
+  </si>
+  <si>
+    <t>c28</t>
+  </si>
+  <si>
+    <t>c35</t>
+  </si>
+  <si>
+    <t>c36</t>
+  </si>
+  <si>
+    <t>c37</t>
+  </si>
+  <si>
+    <t>c38</t>
   </si>
 </sst>
 </file>
@@ -78,7 +189,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -128,6 +245,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,7 +525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -495,28 +618,463 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
